--- a/sample_data/label_level_df.xlsx
+++ b/sample_data/label_level_df.xlsx
@@ -154,7 +154,7 @@
     <t>['met', 'rollator', 'binnen', 'en', 'buitenshuis']</t>
   </si>
   <si>
-    <t>{'avelli', 'bos'}</t>
+    <t>{'bos', 'avelli'}</t>
   </si>
   <si>
     <t>{'avelli'}</t>
@@ -163,7 +163,7 @@
     <t>{'bos'}</t>
   </si>
   <si>
-    <t>{'meskers', 'avelli', 'bos'}</t>
+    <t>{'meskers', 'bos', 'avelli'}</t>
   </si>
   <si>
     <t>{'meskers'}</t>
